--- a/Spatial_Data/Vaccination_Data/State_Vaccination_Data.xlsx
+++ b/Spatial_Data/Vaccination_Data/State_Vaccination_Data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/Spatial_Data/Vaccination_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="14_{DA3C983D-D781-46E9-9E15-CE25A7BD3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51FFA5A5-8383-4768-8401-020101062CC6}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="14_{DA3C983D-D781-46E9-9E15-CE25A7BD3C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44EB1A35-2B7C-48E4-BFC0-A0A370FFCC1B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{AD4ABC4E-BC5E-431E-8568-6E2CA6826252}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{AD4ABC4E-BC5E-431E-8568-6E2CA6826252}"/>
   </bookViews>
   <sheets>
     <sheet name="MMR" sheetId="1" r:id="rId1"/>
     <sheet name="DTaP" sheetId="2" r:id="rId2"/>
     <sheet name="Polio" sheetId="3" r:id="rId3"/>
     <sheet name="VAR" sheetId="4" r:id="rId4"/>
+    <sheet name="Surveyed_Population" sheetId="5" r:id="rId5"/>
+    <sheet name="Kindergarten_Population" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="59">
   <si>
     <t>State</t>
   </si>
@@ -63,9 +65,6 @@
   </si>
   <si>
     <t>Colorado</t>
-  </si>
-  <si>
-    <t>Conneticut</t>
   </si>
   <si>
     <t>Delaware</t>
@@ -108,9 +107,6 @@
   </si>
   <si>
     <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusets</t>
   </si>
   <si>
     <t>Michigan</t>
@@ -173,9 +169,6 @@
     <t>South Dakota</t>
   </si>
   <si>
-    <t>Tenessee</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -216,6 +209,15 @@
   </si>
   <si>
     <t>2022_23</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -590,10 +592,10 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,7 +779,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -803,7 +805,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -826,7 +828,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -846,7 +848,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -872,7 +874,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -898,7 +900,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -924,7 +926,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -950,7 +952,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -973,7 +975,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -999,7 +1001,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -1025,7 +1027,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1051,7 +1053,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -1077,7 +1079,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -1103,7 +1105,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1155,7 +1157,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -1181,7 +1183,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -1207,7 +1209,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -1233,7 +1235,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -1259,7 +1261,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -1285,7 +1287,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -1305,7 +1307,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>31</v>
@@ -1331,7 +1333,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -1383,7 +1385,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -1409,7 +1411,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>35</v>
@@ -1435,7 +1437,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -1461,7 +1463,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>37</v>
@@ -1487,7 +1489,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -1513,7 +1515,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -1539,7 +1541,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -1565,7 +1567,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -1591,7 +1593,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -1643,7 +1645,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -1669,7 +1671,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -1695,7 +1697,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -1721,7 +1723,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -1747,7 +1749,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -1773,7 +1775,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -1799,7 +1801,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -1825,7 +1827,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -1851,7 +1853,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>54</v>
@@ -1874,7 +1876,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>55</v>
@@ -1900,7 +1902,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -1931,7 +1933,10 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,22 +1949,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2116,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -2137,7 +2142,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -2160,7 +2165,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -2180,7 +2185,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -2206,7 +2211,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -2229,7 +2234,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -2255,7 +2260,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -2281,7 +2286,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -2304,7 +2309,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -2330,7 +2335,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -2356,7 +2361,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2382,7 +2387,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -2408,7 +2413,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -2434,7 +2439,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -2460,7 +2465,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -2486,7 +2491,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -2512,7 +2517,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -2538,7 +2543,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -2564,7 +2569,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -2590,7 +2595,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -2616,7 +2621,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -2636,7 +2641,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>31</v>
@@ -2662,7 +2667,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -2688,7 +2693,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -2714,7 +2719,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -2740,7 +2745,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>35</v>
@@ -2766,7 +2771,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -2792,7 +2797,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>37</v>
@@ -2818,7 +2823,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -2844,7 +2849,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -2870,7 +2875,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -2896,7 +2901,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -2922,7 +2927,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -2948,7 +2953,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -2974,7 +2979,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -3000,7 +3005,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -3026,7 +3031,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -3052,7 +3057,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -3078,7 +3083,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -3104,7 +3109,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -3130,7 +3135,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -3156,7 +3161,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -3182,7 +3187,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>54</v>
@@ -3205,7 +3210,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>55</v>
@@ -3231,7 +3236,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -3262,10 +3267,16 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3275,22 +3286,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3442,7 +3453,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -3468,7 +3479,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -3491,7 +3502,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -3505,7 +3516,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -3531,7 +3542,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -3557,7 +3568,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -3583,7 +3594,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -3609,7 +3620,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -3632,7 +3643,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -3658,7 +3669,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -3684,7 +3695,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -3710,7 +3721,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -3736,7 +3747,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -3762,7 +3773,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -3788,7 +3799,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -3840,7 +3851,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -3866,7 +3877,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -3892,7 +3903,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -3918,7 +3929,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -3944,7 +3955,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -3964,7 +3975,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>31</v>
@@ -3990,7 +4001,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -4016,7 +4027,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -4042,7 +4053,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -4068,7 +4079,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>35</v>
@@ -4094,7 +4105,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -4120,7 +4131,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>37</v>
@@ -4146,7 +4157,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -4172,7 +4183,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -4198,7 +4209,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -4224,7 +4235,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -4250,7 +4261,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -4276,7 +4287,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -4302,7 +4313,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -4328,7 +4339,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -4354,7 +4365,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -4380,7 +4391,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -4406,7 +4417,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -4432,7 +4443,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -4458,7 +4469,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -4484,7 +4495,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -4510,7 +4521,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>54</v>
@@ -4533,7 +4544,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>55</v>
@@ -4559,7 +4570,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -4589,8 +4600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B1AABA-E130-4522-A860-EF7EBF32DCFA}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,22 +4617,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4764,7 +4778,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -4790,7 +4804,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -4813,7 +4827,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -4833,7 +4847,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -4859,7 +4873,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -4885,7 +4899,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>15</v>
@@ -4911,7 +4925,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>16</v>
@@ -4937,7 +4951,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>17</v>
@@ -4960,7 +4974,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -4986,7 +5000,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -5012,7 +5026,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -5038,7 +5052,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>21</v>
@@ -5064,7 +5078,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -5090,7 +5104,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -5116,7 +5130,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -5142,7 +5156,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -5168,7 +5182,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>26</v>
@@ -5194,7 +5208,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -5220,7 +5234,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -5246,7 +5260,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -5272,7 +5286,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -5292,7 +5306,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>31</v>
@@ -5318,7 +5332,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -5344,7 +5358,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>33</v>
@@ -5370,7 +5384,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -5396,7 +5410,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>35</v>
@@ -5422,7 +5436,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>36</v>
@@ -5448,7 +5462,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>37</v>
@@ -5474,7 +5488,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -5500,7 +5514,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>39</v>
@@ -5526,7 +5540,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>40</v>
@@ -5552,7 +5566,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -5578,7 +5592,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>42</v>
@@ -5604,7 +5618,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -5630,7 +5644,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>45</v>
@@ -5656,7 +5670,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>46</v>
@@ -5682,7 +5696,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>47</v>
@@ -5708,7 +5722,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>48</v>
@@ -5734,7 +5748,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>49</v>
@@ -5760,7 +5774,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>50</v>
@@ -5786,7 +5800,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>51</v>
@@ -5812,7 +5826,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>53</v>
@@ -5838,7 +5852,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>54</v>
@@ -5861,7 +5875,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>55</v>
@@ -5887,7 +5901,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -5906,6 +5920,2695 @@
       </c>
       <c r="H52">
         <v>0.90500000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F727C5B-4D0D-405B-8685-CF04A1B8DFE5}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.97</v>
+      </c>
+      <c r="H4">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F13">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0.99</v>
+      </c>
+      <c r="D14">
+        <v>0.99</v>
+      </c>
+      <c r="E14">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.996</v>
+      </c>
+      <c r="H14">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.751</v>
+      </c>
+      <c r="H16">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0.99</v>
+      </c>
+      <c r="D19">
+        <v>0.99</v>
+      </c>
+      <c r="E19">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.996</v>
+      </c>
+      <c r="F21">
+        <v>0.85</v>
+      </c>
+      <c r="G21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H21">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="E25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F29">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.995</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.999</v>
+      </c>
+      <c r="F30">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G30">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0.996</v>
+      </c>
+      <c r="D33">
+        <v>0.996</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.999</v>
+      </c>
+      <c r="F34">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G34">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.89</v>
+      </c>
+      <c r="G35">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H35">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.995</v>
+      </c>
+      <c r="F36">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="G37">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D38">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E38">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.9</v>
+      </c>
+      <c r="G38">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="H38">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D40">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E40">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.95</v>
+      </c>
+      <c r="G40">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="H40">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.93</v>
+      </c>
+      <c r="G41">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H41">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0.27</v>
+      </c>
+      <c r="D42">
+        <v>0.27</v>
+      </c>
+      <c r="E42">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H42">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0.999</v>
+      </c>
+      <c r="D43">
+        <v>0.999</v>
+      </c>
+      <c r="E43">
+        <v>0.998</v>
+      </c>
+      <c r="F43">
+        <v>0.999</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D45">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.996</v>
+      </c>
+      <c r="F45">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H45">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D48">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E48">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.02</v>
+      </c>
+      <c r="G48">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H48">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D49">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E49">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="H49">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D50">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E50">
+        <v>0.496</v>
+      </c>
+      <c r="G50">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H50">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D51">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G51">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H51">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6EA65B-9AA0-44E9-9386-5955056849A6}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>57245</v>
+      </c>
+      <c r="D2">
+        <v>77739</v>
+      </c>
+      <c r="E2">
+        <v>59477</v>
+      </c>
+      <c r="F2">
+        <v>56974</v>
+      </c>
+      <c r="G2">
+        <v>60332</v>
+      </c>
+      <c r="H2">
+        <v>59113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>9692</v>
+      </c>
+      <c r="D3">
+        <v>10316</v>
+      </c>
+      <c r="E3">
+        <v>10381</v>
+      </c>
+      <c r="F3">
+        <v>9461</v>
+      </c>
+      <c r="G3">
+        <v>9790</v>
+      </c>
+      <c r="H3">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>81710</v>
+      </c>
+      <c r="D4">
+        <v>79981</v>
+      </c>
+      <c r="E4">
+        <v>83976</v>
+      </c>
+      <c r="F4">
+        <v>76382</v>
+      </c>
+      <c r="G4">
+        <v>83463</v>
+      </c>
+      <c r="H4">
+        <v>80814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3960</v>
+      </c>
+      <c r="D5">
+        <v>39257</v>
+      </c>
+      <c r="E5">
+        <v>39510</v>
+      </c>
+      <c r="F5">
+        <v>37540</v>
+      </c>
+      <c r="G5">
+        <v>39358</v>
+      </c>
+      <c r="H5">
+        <v>38358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>574702</v>
+      </c>
+      <c r="D6">
+        <v>568947</v>
+      </c>
+      <c r="E6">
+        <v>566155</v>
+      </c>
+      <c r="F6">
+        <v>498214</v>
+      </c>
+      <c r="G6">
+        <v>512144</v>
+      </c>
+      <c r="H6">
+        <v>541132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>65718</v>
+      </c>
+      <c r="D7">
+        <v>64191</v>
+      </c>
+      <c r="E7">
+        <v>69088</v>
+      </c>
+      <c r="F7">
+        <v>63619</v>
+      </c>
+      <c r="G7">
+        <v>66900</v>
+      </c>
+      <c r="H7">
+        <v>65576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>39174</v>
+      </c>
+      <c r="D8">
+        <v>38230</v>
+      </c>
+      <c r="E8">
+        <v>38888</v>
+      </c>
+      <c r="F8">
+        <v>34396</v>
+      </c>
+      <c r="G8">
+        <v>35451</v>
+      </c>
+      <c r="H8">
+        <v>35580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10988</v>
+      </c>
+      <c r="D9">
+        <v>10798</v>
+      </c>
+      <c r="F9">
+        <v>10587</v>
+      </c>
+      <c r="G9">
+        <v>11181</v>
+      </c>
+      <c r="H9">
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>8262</v>
+      </c>
+      <c r="G10">
+        <v>8959</v>
+      </c>
+      <c r="H10">
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>222397</v>
+      </c>
+      <c r="D11">
+        <v>224641</v>
+      </c>
+      <c r="E11">
+        <v>228298</v>
+      </c>
+      <c r="F11">
+        <v>207026</v>
+      </c>
+      <c r="G11">
+        <v>229432</v>
+      </c>
+      <c r="H11">
+        <v>230309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>131459</v>
+      </c>
+      <c r="D12">
+        <v>131275</v>
+      </c>
+      <c r="E12">
+        <v>130102</v>
+      </c>
+      <c r="F12">
+        <v>83191</v>
+      </c>
+      <c r="G12">
+        <v>118742</v>
+      </c>
+      <c r="H12">
+        <v>123771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>16325</v>
+      </c>
+      <c r="D13">
+        <v>16051</v>
+      </c>
+      <c r="E13">
+        <v>15695</v>
+      </c>
+      <c r="F13">
+        <v>13074</v>
+      </c>
+      <c r="G13">
+        <v>13368</v>
+      </c>
+      <c r="H13">
+        <v>13195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>22553</v>
+      </c>
+      <c r="D14">
+        <v>22995</v>
+      </c>
+      <c r="E14">
+        <v>23301</v>
+      </c>
+      <c r="F14">
+        <v>22667</v>
+      </c>
+      <c r="G14">
+        <v>23854</v>
+      </c>
+      <c r="H14">
+        <v>23721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>144858</v>
+      </c>
+      <c r="D15">
+        <v>142876</v>
+      </c>
+      <c r="E15">
+        <v>145891</v>
+      </c>
+      <c r="G15">
+        <v>137699</v>
+      </c>
+      <c r="H15">
+        <v>135332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>84296</v>
+      </c>
+      <c r="D16">
+        <v>82324</v>
+      </c>
+      <c r="E16">
+        <v>88253</v>
+      </c>
+      <c r="F16">
+        <v>78694</v>
+      </c>
+      <c r="G16">
+        <v>83198</v>
+      </c>
+      <c r="H16">
+        <v>81307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>39632</v>
+      </c>
+      <c r="D17">
+        <v>40624</v>
+      </c>
+      <c r="E17">
+        <v>40812</v>
+      </c>
+      <c r="F17">
+        <v>39141</v>
+      </c>
+      <c r="G17">
+        <v>40111</v>
+      </c>
+      <c r="H17">
+        <v>39178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>38484</v>
+      </c>
+      <c r="D18">
+        <v>37838</v>
+      </c>
+      <c r="E18">
+        <v>37865</v>
+      </c>
+      <c r="F18">
+        <v>34687</v>
+      </c>
+      <c r="G18">
+        <v>36526</v>
+      </c>
+      <c r="H18">
+        <v>35543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>55152</v>
+      </c>
+      <c r="D19">
+        <v>55587</v>
+      </c>
+      <c r="E19">
+        <v>59233</v>
+      </c>
+      <c r="F19">
+        <v>59233</v>
+      </c>
+      <c r="G19">
+        <v>59233</v>
+      </c>
+      <c r="H19">
+        <v>54742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>58227</v>
+      </c>
+      <c r="D20">
+        <v>56203</v>
+      </c>
+      <c r="E20">
+        <v>59685</v>
+      </c>
+      <c r="F20">
+        <v>61912</v>
+      </c>
+      <c r="G20">
+        <v>66518</v>
+      </c>
+      <c r="H20">
+        <v>54314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>13225</v>
+      </c>
+      <c r="D21">
+        <v>13419</v>
+      </c>
+      <c r="E21">
+        <v>13450</v>
+      </c>
+      <c r="F21">
+        <v>13477</v>
+      </c>
+      <c r="G21">
+        <v>12881</v>
+      </c>
+      <c r="H21">
+        <v>12403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>68528</v>
+      </c>
+      <c r="D22">
+        <v>71431</v>
+      </c>
+      <c r="E22">
+        <v>72443</v>
+      </c>
+      <c r="F22">
+        <v>65764</v>
+      </c>
+      <c r="G22">
+        <v>53866</v>
+      </c>
+      <c r="H22">
+        <v>59684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>63377</v>
+      </c>
+      <c r="D23">
+        <v>65270</v>
+      </c>
+      <c r="E23">
+        <v>66756</v>
+      </c>
+      <c r="F23">
+        <v>60724</v>
+      </c>
+      <c r="G23">
+        <v>65582</v>
+      </c>
+      <c r="H23">
+        <v>66041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>119028</v>
+      </c>
+      <c r="D24">
+        <v>118632</v>
+      </c>
+      <c r="E24">
+        <v>120565</v>
+      </c>
+      <c r="F24">
+        <v>106657</v>
+      </c>
+      <c r="G24">
+        <v>114251</v>
+      </c>
+      <c r="H24">
+        <v>113678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>69807</v>
+      </c>
+      <c r="D25">
+        <v>70085</v>
+      </c>
+      <c r="E25">
+        <v>71223</v>
+      </c>
+      <c r="F25">
+        <v>66007</v>
+      </c>
+      <c r="G25">
+        <v>69403</v>
+      </c>
+      <c r="H25">
+        <v>68152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>39284</v>
+      </c>
+      <c r="D26">
+        <v>37775</v>
+      </c>
+      <c r="E26">
+        <v>37870</v>
+      </c>
+      <c r="F26">
+        <v>34028</v>
+      </c>
+      <c r="G26">
+        <v>36524</v>
+      </c>
+      <c r="H26">
+        <v>69126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>73113</v>
+      </c>
+      <c r="D27">
+        <v>72687</v>
+      </c>
+      <c r="E27">
+        <v>72324</v>
+      </c>
+      <c r="F27">
+        <v>63093</v>
+      </c>
+      <c r="G27">
+        <v>71034</v>
+      </c>
+      <c r="H27">
+        <v>36048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>12188</v>
+      </c>
+      <c r="D28">
+        <v>12480</v>
+      </c>
+      <c r="E28">
+        <v>12501</v>
+      </c>
+      <c r="F28">
+        <v>11279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>23313</v>
+      </c>
+      <c r="D29">
+        <v>26925</v>
+      </c>
+      <c r="E29">
+        <v>26893</v>
+      </c>
+      <c r="F29">
+        <v>25681</v>
+      </c>
+      <c r="G29">
+        <v>25018</v>
+      </c>
+      <c r="H29">
+        <v>23176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>37178</v>
+      </c>
+      <c r="D30">
+        <v>37971</v>
+      </c>
+      <c r="E30">
+        <v>37724</v>
+      </c>
+      <c r="F30">
+        <v>34171</v>
+      </c>
+      <c r="G30">
+        <v>36855</v>
+      </c>
+      <c r="H30">
+        <v>34333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>12165</v>
+      </c>
+      <c r="D31">
+        <v>12421</v>
+      </c>
+      <c r="E31">
+        <v>12447</v>
+      </c>
+      <c r="F31">
+        <v>10242</v>
+      </c>
+      <c r="G31">
+        <v>12157</v>
+      </c>
+      <c r="H31">
+        <v>11332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>107360</v>
+      </c>
+      <c r="D32">
+        <v>109161</v>
+      </c>
+      <c r="E32">
+        <v>107900</v>
+      </c>
+      <c r="F32">
+        <v>100144</v>
+      </c>
+      <c r="G32">
+        <v>104240</v>
+      </c>
+      <c r="H32">
+        <v>104468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>26896</v>
+      </c>
+      <c r="D33">
+        <v>25269</v>
+      </c>
+      <c r="E33">
+        <v>23087</v>
+      </c>
+      <c r="F33">
+        <v>20589</v>
+      </c>
+      <c r="G33">
+        <v>20736</v>
+      </c>
+      <c r="H33">
+        <v>21068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>226456</v>
+      </c>
+      <c r="D34">
+        <v>220495</v>
+      </c>
+      <c r="E34">
+        <v>234165</v>
+      </c>
+      <c r="F34">
+        <v>216804</v>
+      </c>
+      <c r="G34">
+        <v>195377</v>
+      </c>
+      <c r="H34">
+        <v>205906</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>127197</v>
+      </c>
+      <c r="D35">
+        <v>124343</v>
+      </c>
+      <c r="E35">
+        <v>124548</v>
+      </c>
+      <c r="F35">
+        <v>120995</v>
+      </c>
+      <c r="G35">
+        <v>118191</v>
+      </c>
+      <c r="H35">
+        <v>125679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>10365</v>
+      </c>
+      <c r="D36">
+        <v>10382</v>
+      </c>
+      <c r="E36">
+        <v>10587</v>
+      </c>
+      <c r="F36">
+        <v>10116</v>
+      </c>
+      <c r="G36">
+        <v>10755</v>
+      </c>
+      <c r="H36">
+        <v>10554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>138753</v>
+      </c>
+      <c r="D37">
+        <v>139679</v>
+      </c>
+      <c r="E37">
+        <v>139103</v>
+      </c>
+      <c r="F37">
+        <v>128535</v>
+      </c>
+      <c r="G37">
+        <v>139077</v>
+      </c>
+      <c r="H37">
+        <v>134893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>53898</v>
+      </c>
+      <c r="D38">
+        <v>54806</v>
+      </c>
+      <c r="E38">
+        <v>55348</v>
+      </c>
+      <c r="F38">
+        <v>52656</v>
+      </c>
+      <c r="G38">
+        <v>54042</v>
+      </c>
+      <c r="H38">
+        <v>52548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>45818</v>
+      </c>
+      <c r="D39">
+        <v>45870</v>
+      </c>
+      <c r="E39">
+        <v>45959</v>
+      </c>
+      <c r="F39">
+        <v>39568</v>
+      </c>
+      <c r="G39">
+        <v>41538</v>
+      </c>
+      <c r="H39">
+        <v>40963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>141571</v>
+      </c>
+      <c r="D40">
+        <v>143560</v>
+      </c>
+      <c r="E40">
+        <v>140197</v>
+      </c>
+      <c r="F40">
+        <v>129307</v>
+      </c>
+      <c r="G40">
+        <v>139558</v>
+      </c>
+      <c r="H40">
+        <v>137259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>11025</v>
+      </c>
+      <c r="D41">
+        <v>10964</v>
+      </c>
+      <c r="E41">
+        <v>11219</v>
+      </c>
+      <c r="F41">
+        <v>10402</v>
+      </c>
+      <c r="G41">
+        <v>11002</v>
+      </c>
+      <c r="H41">
+        <v>10532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>58458</v>
+      </c>
+      <c r="D42">
+        <v>58442</v>
+      </c>
+      <c r="E42">
+        <v>65938</v>
+      </c>
+      <c r="F42">
+        <v>56330</v>
+      </c>
+      <c r="G42">
+        <v>58276</v>
+      </c>
+      <c r="H42">
+        <v>58878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>12125</v>
+      </c>
+      <c r="D43">
+        <v>12062</v>
+      </c>
+      <c r="E43">
+        <v>12367</v>
+      </c>
+      <c r="F43">
+        <v>11512</v>
+      </c>
+      <c r="G43">
+        <v>12251</v>
+      </c>
+      <c r="H43">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>78734</v>
+      </c>
+      <c r="D44">
+        <v>78630</v>
+      </c>
+      <c r="E44">
+        <v>80595</v>
+      </c>
+      <c r="F44">
+        <v>72819</v>
+      </c>
+      <c r="G44">
+        <v>79120</v>
+      </c>
+      <c r="H44">
+        <v>79692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>387981</v>
+      </c>
+      <c r="D45">
+        <v>390034</v>
+      </c>
+      <c r="E45">
+        <v>398680</v>
+      </c>
+      <c r="F45">
+        <v>377840</v>
+      </c>
+      <c r="G45">
+        <v>389037</v>
+      </c>
+      <c r="H45">
+        <v>381680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>48827</v>
+      </c>
+      <c r="D46">
+        <v>50179</v>
+      </c>
+      <c r="E46">
+        <v>49208</v>
+      </c>
+      <c r="F46">
+        <v>46247</v>
+      </c>
+      <c r="G46">
+        <v>48995</v>
+      </c>
+      <c r="H46">
+        <v>46635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>6255</v>
+      </c>
+      <c r="D47">
+        <v>6126</v>
+      </c>
+      <c r="E47">
+        <v>6293</v>
+      </c>
+      <c r="F47">
+        <v>5535</v>
+      </c>
+      <c r="G47">
+        <v>6126</v>
+      </c>
+      <c r="H47">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>100581</v>
+      </c>
+      <c r="D48">
+        <v>100394</v>
+      </c>
+      <c r="E48">
+        <v>99399</v>
+      </c>
+      <c r="F48">
+        <v>88273</v>
+      </c>
+      <c r="G48">
+        <v>95996</v>
+      </c>
+      <c r="H48">
+        <v>93271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>85118</v>
+      </c>
+      <c r="D49">
+        <v>87510</v>
+      </c>
+      <c r="E49">
+        <v>87757</v>
+      </c>
+      <c r="F49">
+        <v>74931</v>
+      </c>
+      <c r="G49">
+        <v>87256</v>
+      </c>
+      <c r="H49">
+        <v>86284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>19519</v>
+      </c>
+      <c r="D50">
+        <v>19442</v>
+      </c>
+      <c r="E50">
+        <v>17114</v>
+      </c>
+      <c r="G50">
+        <v>18070</v>
+      </c>
+      <c r="H50">
+        <v>19175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>3577</v>
+      </c>
+      <c r="D51">
+        <v>66344</v>
+      </c>
+      <c r="E51">
+        <v>67391</v>
+      </c>
+      <c r="F51">
+        <v>63486</v>
+      </c>
+      <c r="G51">
+        <v>64275</v>
+      </c>
+      <c r="H51">
+        <v>63593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>7734</v>
+      </c>
+      <c r="E52">
+        <v>7913</v>
+      </c>
+      <c r="F52">
+        <v>6923</v>
+      </c>
+      <c r="G52">
+        <v>7382</v>
+      </c>
+      <c r="H52">
+        <v>7060</v>
       </c>
     </row>
   </sheetData>
